--- a/temp/メモ.xlsx
+++ b/temp/メモ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\MickNabewataPortfolio\micknabewata-portfolio\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\03.サンプルソース\17.Firebase\01.MicknabewataPortfolio\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4466BC6-3BAB-440A-AC24-D361F5DF34A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自己紹介(PC)" sheetId="1" r:id="rId1"/>
@@ -384,8 +383,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +465,23 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -834,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1023,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,16 +1899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
@@ -1922,7 +1944,7 @@
       <c r="AF2" s="38"/>
       <c r="AG2" s="38"/>
     </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -1956,10 +1978,10 @@
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1968,49 +1990,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.85">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -2025,14 +2047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2090,7 @@
       <c r="AF2" s="38"/>
       <c r="AG2" s="38"/>
     </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -2102,10 +2124,10 @@
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2157,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="5"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="I6" s="6"/>
       <c r="J6" s="2" t="s">
@@ -2148,7 +2170,7 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2180,7 @@
       <c r="V7" s="6"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G8" s="1"/>
       <c r="I8" s="6"/>
       <c r="K8" t="s">
@@ -2177,7 +2199,7 @@
       </c>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2221,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G10" s="1"/>
       <c r="I10" s="6"/>
       <c r="K10" t="s">
@@ -2218,7 +2240,7 @@
       </c>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2248,10 +2270,10 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G13" s="1"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
@@ -2278,7 +2300,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="5"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="2" t="s">
@@ -2291,14 +2313,14 @@
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G15" s="1"/>
       <c r="I15" s="6"/>
       <c r="T15" s="1"/>
       <c r="V15" s="6"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -2320,7 +2342,7 @@
       </c>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>46</v>
       </c>
@@ -2345,7 +2367,7 @@
       </c>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +2386,7 @@
       <c r="V18" s="6"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
@@ -2397,7 +2419,7 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2428,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G21" s="1"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
@@ -2433,7 +2455,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="5"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
@@ -2449,14 +2471,14 @@
       </c>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G23" s="1"/>
       <c r="I23" s="6"/>
       <c r="T23" s="1"/>
       <c r="V23" s="6"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G24" s="1"/>
       <c r="I24" s="6"/>
       <c r="K24" t="s">
@@ -2475,7 +2497,7 @@
       </c>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G25" s="1"/>
       <c r="I25" s="6"/>
       <c r="K25" t="s">
@@ -2494,7 +2516,7 @@
       </c>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G26" s="1"/>
       <c r="I26" s="6"/>
       <c r="K26" t="s">
@@ -2513,7 +2535,7 @@
       </c>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G27" s="1"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
@@ -2540,10 +2562,10 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="9"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G29" s="1"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
@@ -2570,7 +2592,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="5"/>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G30" s="1"/>
       <c r="I30" s="6"/>
       <c r="J30" s="2" t="s">
@@ -2583,14 +2605,14 @@
       </c>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G31" s="1"/>
       <c r="I31" s="6"/>
       <c r="T31" s="1"/>
       <c r="V31" s="6"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G32" s="1"/>
       <c r="I32" s="6"/>
       <c r="K32" t="s">
@@ -2609,7 +2631,7 @@
       </c>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="7:33" x14ac:dyDescent="0.85">
+    <row r="33" spans="7:33" x14ac:dyDescent="0.45">
       <c r="G33" s="1"/>
       <c r="I33" s="6"/>
       <c r="K33" t="s">
@@ -2628,7 +2650,7 @@
       </c>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="7:33" x14ac:dyDescent="0.85">
+    <row r="34" spans="7:33" x14ac:dyDescent="0.45">
       <c r="G34" s="1"/>
       <c r="I34" s="6"/>
       <c r="K34" t="s">
@@ -2647,7 +2669,7 @@
       </c>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="7:33" x14ac:dyDescent="0.85">
+    <row r="35" spans="7:33" x14ac:dyDescent="0.45">
       <c r="G35" s="1"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
@@ -2686,14 +2708,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2753,7 @@
       <c r="AF2" s="38"/>
       <c r="AG2" s="38"/>
     </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -2763,10 +2787,10 @@
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2796,20 +2820,25 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="5"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="59" t="s">
         <v>52</v>
       </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="T6" s="1"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="59" t="s">
         <v>52</v>
       </c>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2848,7 @@
       <c r="V7" s="6"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G8" s="1"/>
       <c r="I8" s="6"/>
       <c r="K8" t="s">
@@ -2844,7 +2873,7 @@
       </c>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +2883,7 @@
       <c r="V9" s="6"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G10" s="1"/>
       <c r="I10" s="6"/>
       <c r="K10" t="s">
@@ -2885,7 +2914,7 @@
       </c>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2924,7 @@
       <c r="V11" s="6"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G12" s="1"/>
       <c r="I12" s="6"/>
       <c r="K12" t="s">
@@ -2914,14 +2943,14 @@
       </c>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G13" s="1"/>
       <c r="I13" s="6"/>
       <c r="T13" s="1"/>
       <c r="V13" s="6"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G14" s="1"/>
       <c r="I14" s="6"/>
       <c r="K14" t="s">
@@ -2940,14 +2969,14 @@
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="G15" s="1"/>
       <c r="I15" s="6"/>
       <c r="T15" s="1"/>
       <c r="V15" s="6"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -2969,7 +2998,7 @@
       </c>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C17" s="14" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +3016,7 @@
       <c r="V17" s="6"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="1"/>
@@ -3008,7 +3037,7 @@
       </c>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C19" s="17" t="s">
         <v>21</v>
       </c>
@@ -3029,7 +3058,7 @@
       </c>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G20" s="1"/>
       <c r="I20" s="6"/>
       <c r="M20" t="s">
@@ -3042,7 +3071,7 @@
       </c>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G21" s="1"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
@@ -3069,41 +3098,41 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="9"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.85">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.45">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.85">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G33" s="1"/>
     </row>
   </sheetData>
@@ -3112,10 +3141,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M16" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="M14" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="Z16" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="Z14" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="M16" r:id="rId1"/>
+    <hyperlink ref="M14" r:id="rId2"/>
+    <hyperlink ref="Z16" r:id="rId3"/>
+    <hyperlink ref="Z14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3124,16 +3153,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="39" t="s">
         <v>66</v>
       </c>
@@ -3164,7 +3193,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="38"/>
@@ -3191,27 +3220,27 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3228,14 +3257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="39" t="s">
         <v>66</v>
       </c>
@@ -3266,7 +3295,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="38"/>
@@ -3293,7 +3322,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3319,18 +3348,18 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="D8" t="s">
         <v>10</v>
@@ -3340,7 +3369,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -3350,7 +3379,7 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="D10" t="s">
         <v>14</v>
@@ -3360,7 +3389,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3386,7 +3415,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3412,18 +3441,18 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="D16" t="s">
         <v>16</v>
@@ -3433,7 +3462,7 @@
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
       <c r="D17" t="s">
         <v>17</v>
@@ -3443,7 +3472,7 @@
       </c>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
       <c r="D18" t="s">
         <v>48</v>
@@ -3453,7 +3482,7 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3479,7 +3508,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3505,18 +3534,18 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B23" s="6"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
       <c r="D24" t="s">
         <v>22</v>
@@ -3526,7 +3555,7 @@
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
       <c r="D25" t="s">
         <v>24</v>
@@ -3536,11 +3565,11 @@
       </c>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B26" s="6"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3578,14 +3607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="39" t="s">
         <v>66</v>
       </c>
@@ -3616,7 +3645,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="38"/>
@@ -3643,7 +3672,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3669,18 +3698,18 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="D8" t="s">
         <v>2</v>
@@ -3693,11 +3722,11 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="D10" t="s">
         <v>53</v>
@@ -3713,11 +3742,11 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="D12" t="s">
         <v>57</v>
@@ -3727,11 +3756,11 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="D14" t="s">
         <v>59</v>
@@ -3741,11 +3770,11 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="D16" t="s">
         <v>60</v>
@@ -3755,11 +3784,11 @@
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
       <c r="D18" t="s">
         <v>56</v>
@@ -3769,21 +3798,21 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B19" s="6"/>
       <c r="F19" t="s">
         <v>63</v>
       </c>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
       <c r="F20" t="s">
         <v>64</v>
       </c>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3809,7 +3838,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3835,18 +3864,18 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B26" s="6"/>
       <c r="D26" t="s">
         <v>2</v>
@@ -3859,11 +3888,11 @@
       </c>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B27" s="6"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B28" s="6"/>
       <c r="D28" t="s">
         <v>53</v>
@@ -3879,11 +3908,11 @@
       </c>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B29" s="6"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B30" s="6"/>
       <c r="D30" t="s">
         <v>57</v>
@@ -3893,11 +3922,11 @@
       </c>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B31" s="6"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B32" s="6"/>
       <c r="D32" t="s">
         <v>59</v>
@@ -3907,11 +3936,11 @@
       </c>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B34" s="6"/>
       <c r="D34" t="s">
         <v>60</v>
@@ -3921,11 +3950,11 @@
       </c>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B35" s="6"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B36" s="6"/>
       <c r="D36" t="s">
         <v>56</v>
@@ -3935,21 +3964,21 @@
       </c>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
       <c r="F37" t="s">
         <v>63</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B38" s="6"/>
       <c r="F38" t="s">
         <v>64</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3982,10 +4011,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="F32" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="F16" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="F34" r:id="rId3"/>
+    <hyperlink ref="F32" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3993,14 +4022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="38" t="s">
         <v>67</v>
       </c>
@@ -4029,7 +4058,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -4056,7 +4085,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4113,7 @@
       <c r="X4" s="53"/>
       <c r="Y4" s="54"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" s="52"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -4110,7 +4139,7 @@
       <c r="X5" s="53"/>
       <c r="Y5" s="54"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
@@ -4138,7 +4167,7 @@
       <c r="X6" s="53"/>
       <c r="Y6" s="54"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="52"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -4164,7 +4193,7 @@
       <c r="X7" s="53"/>
       <c r="Y7" s="54"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
@@ -4192,7 +4221,7 @@
       <c r="X8" s="53"/>
       <c r="Y8" s="54"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -4218,7 +4247,7 @@
       <c r="X9" s="53"/>
       <c r="Y9" s="54"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4275,7 @@
       <c r="X10" s="53"/>
       <c r="Y10" s="54"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -4272,7 +4301,7 @@
       <c r="X11" s="56"/>
       <c r="Y11" s="57"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -4298,7 +4327,7 @@
       <c r="X12" s="41"/>
       <c r="Y12" s="42"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="40"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -4324,7 +4353,7 @@
       <c r="X13" s="41"/>
       <c r="Y13" s="42"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -4350,7 +4379,7 @@
       <c r="X14" s="41"/>
       <c r="Y14" s="42"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="43"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4376,7 +4405,7 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="45"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="46" t="s">
         <v>65</v>
       </c>
@@ -4404,7 +4433,7 @@
       <c r="X16" s="47"/>
       <c r="Y16" s="48"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -4430,7 +4459,7 @@
       <c r="X17" s="50"/>
       <c r="Y17" s="51"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B18" s="25"/>
       <c r="C18" s="24" t="s">
         <v>46</v>
@@ -4460,7 +4489,7 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="27"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B19" s="28"/>
       <c r="C19" s="31"/>
       <c r="D19" s="37"/>
@@ -4486,7 +4515,7 @@
       <c r="X19" s="31"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B20" s="25"/>
       <c r="C20" s="24" t="s">
         <v>12</v>
@@ -4516,7 +4545,7 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="27"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B21" s="28"/>
       <c r="C21" s="31"/>
       <c r="D21" s="36"/>
@@ -4542,7 +4571,7 @@
       <c r="X21" s="31"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B22" s="25"/>
       <c r="C22" s="33" t="s">
         <v>38</v>
@@ -4572,7 +4601,7 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="27"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
       <c r="D23" s="30"/>
@@ -4598,7 +4627,7 @@
       <c r="X23" s="31"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B24" s="25"/>
       <c r="C24" s="22" t="s">
         <v>40</v>
@@ -4628,7 +4657,7 @@
       <c r="X24" s="24"/>
       <c r="Y24" s="27"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="30"/>
@@ -4654,7 +4683,7 @@
       <c r="X25" s="31"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26" t="s">
@@ -4682,7 +4711,7 @@
       <c r="X26" s="24"/>
       <c r="Y26" s="27"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>

--- a/temp/メモ.xlsx
+++ b/temp/メモ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\03.サンプルソース\17.Firebase\01.MicknabewataPortfolio\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\MickNabewataPortfolio\micknabewata-portfolio\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD47FE-6FD0-414C-AB22-99CCD172BF5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自己紹介(PC)" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
   <si>
     <t>自己紹介</t>
     <rPh sb="0" eb="2">
@@ -379,11 +380,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,6 +978,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,12 +1042,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,89 +1912,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AG17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,49 +2003,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.85">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -2047,87 +2060,906 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:AG37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM34" sqref="AM34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G8" s="1"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="T9" s="1"/>
+      <c r="V9" s="6"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G10" s="1"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="V10" s="6"/>
+      <c r="X10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="V11" s="6"/>
+      <c r="X11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="V12" s="6"/>
+      <c r="X12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G13" s="1"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="9"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="T17" s="1"/>
+      <c r="V17" s="6"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="V18" s="6"/>
+      <c r="X18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="V19" s="6"/>
+      <c r="X19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="V20" s="6"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="9"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G23" s="1"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="5"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="5"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G24" s="1"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="T25" s="1"/>
+      <c r="V25" s="6"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G26" s="1"/>
+      <c r="I26" s="6"/>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="X26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G27" s="1"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="V27" s="6"/>
+      <c r="X27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G28" s="1"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="V28" s="6"/>
+      <c r="X28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G29" s="1"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="9"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="9"/>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G31" s="1"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="5"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="5"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.85">
+      <c r="G32" s="1"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="7:33" x14ac:dyDescent="0.85">
+      <c r="G33" s="1"/>
+      <c r="I33" s="6"/>
+      <c r="T33" s="1"/>
+      <c r="V33" s="6"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="7:33" x14ac:dyDescent="0.85">
+      <c r="G34" s="1"/>
+      <c r="I34" s="6"/>
+      <c r="K34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>70</v>
+      </c>
+      <c r="R34" t="s">
+        <v>70</v>
+      </c>
+      <c r="S34" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="V34" s="6"/>
+      <c r="X34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="7:33" x14ac:dyDescent="0.85">
+      <c r="G35" s="1"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="V35" s="6"/>
+      <c r="X35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="7:33" x14ac:dyDescent="0.85">
+      <c r="I36" s="6"/>
+      <c r="K36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" t="s">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="V36" s="6"/>
+      <c r="X36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="7:33" x14ac:dyDescent="0.85">
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="9"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:AG3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:AG33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetData>
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.85">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2157,20 +2989,25 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="5"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" ht="18.3" x14ac:dyDescent="0.85">
       <c r="G6" s="1"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="T6" s="1"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="W6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,803 +3017,135 @@
       <c r="V7" s="6"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G8" s="1"/>
       <c r="I8" s="6"/>
       <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S8" t="s">
-        <v>12</v>
+      <c r="N8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="T8" s="1"/>
       <c r="V8" s="6"/>
       <c r="X8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9" s="6"/>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" t="s">
-        <v>12</v>
-      </c>
       <c r="T9" s="1"/>
       <c r="V9" s="6"/>
-      <c r="X9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>12</v>
-      </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G10" s="1"/>
       <c r="I10" s="6"/>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="T10" s="1"/>
       <c r="V10" s="6"/>
       <c r="X10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="9"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="I11" s="6"/>
+      <c r="T11" s="1"/>
+      <c r="V11" s="6"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="I12" s="6"/>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="V12" s="6"/>
+      <c r="X12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="5"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="5"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="I13" s="6"/>
+      <c r="T13" s="1"/>
+      <c r="V13" s="6"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="2" t="s">
-        <v>18</v>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="T14" s="1"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="2" t="s">
-        <v>23</v>
+      <c r="X14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.85">
       <c r="G15" s="1"/>
       <c r="I15" s="6"/>
       <c r="T15" s="1"/>
       <c r="V15" s="6"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="V16" s="6"/>
-      <c r="X16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="I17" s="6"/>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="V17" s="6"/>
-      <c r="X17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="6"/>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="V18" s="6"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="9"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="9"/>
-    </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G21" s="1"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="5"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="5"/>
-    </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G23" s="1"/>
-      <c r="I23" s="6"/>
-      <c r="T23" s="1"/>
-      <c r="V23" s="6"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G24" s="1"/>
-      <c r="I24" s="6"/>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S24" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="V24" s="6"/>
-      <c r="X24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G25" s="1"/>
-      <c r="I25" s="6"/>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="V25" s="6"/>
-      <c r="X25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G26" s="1"/>
-      <c r="I26" s="6"/>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S26" t="s">
-        <v>12</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="V26" s="6"/>
-      <c r="X26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G27" s="1"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="9"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="9"/>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G29" s="1"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="5"/>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G30" s="1"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G31" s="1"/>
-      <c r="I31" s="6"/>
-      <c r="T31" s="1"/>
-      <c r="V31" s="6"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.45">
-      <c r="G32" s="1"/>
-      <c r="I32" s="6"/>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="V32" s="6"/>
-      <c r="X32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="7:33" x14ac:dyDescent="0.45">
-      <c r="G33" s="1"/>
-      <c r="I33" s="6"/>
-      <c r="K33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" t="s">
-        <v>12</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="V33" s="6"/>
-      <c r="X33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="7:33" x14ac:dyDescent="0.45">
-      <c r="G34" s="1"/>
-      <c r="I34" s="6"/>
-      <c r="K34" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="V34" s="6"/>
-      <c r="X34" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="7:33" x14ac:dyDescent="0.45">
-      <c r="G35" s="1"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="9"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:AG3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="5"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="T6" s="1"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="T7" s="1"/>
-      <c r="V7" s="6"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="V8" s="6"/>
-      <c r="X8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="T9" s="1"/>
-      <c r="V9" s="6"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G10" s="1"/>
-      <c r="I10" s="6"/>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="V10" s="6"/>
-      <c r="X10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="I11" s="6"/>
-      <c r="T11" s="1"/>
-      <c r="V11" s="6"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G12" s="1"/>
-      <c r="I12" s="6"/>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="V12" s="6"/>
-      <c r="X12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="T13" s="1"/>
-      <c r="V13" s="6"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G14" s="1"/>
-      <c r="I14" s="6"/>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="V14" s="6"/>
-      <c r="X14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="G15" s="1"/>
-      <c r="I15" s="6"/>
-      <c r="T15" s="1"/>
-      <c r="V15" s="6"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.85">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +3167,7 @@
       </c>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.85">
       <c r="C17" s="14" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3185,7 @@
       <c r="V17" s="6"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.85">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="1"/>
@@ -3037,7 +3206,7 @@
       </c>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.85">
       <c r="C19" s="17" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3227,7 @@
       </c>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G20" s="1"/>
       <c r="I20" s="6"/>
       <c r="M20" t="s">
@@ -3071,7 +3240,7 @@
       </c>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G21" s="1"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
@@ -3098,41 +3267,41 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="9"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.85">
       <c r="C22" s="2"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.85">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.85">
       <c r="G33" s="1"/>
     </row>
   </sheetData>
@@ -3141,10 +3310,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M16" r:id="rId1"/>
-    <hyperlink ref="M14" r:id="rId2"/>
-    <hyperlink ref="Z16" r:id="rId3"/>
-    <hyperlink ref="Z14" r:id="rId4"/>
+    <hyperlink ref="M16" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M14" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="Z16" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="Z14" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3153,94 +3322,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3257,72 +3426,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Z27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3348,18 +3517,18 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B7" s="6"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B8" s="6"/>
       <c r="D8" t="s">
         <v>10</v>
@@ -3369,7 +3538,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B9" s="6"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -3379,7 +3548,7 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B10" s="6"/>
       <c r="D10" t="s">
         <v>14</v>
@@ -3389,7 +3558,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3415,7 +3584,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3441,18 +3610,18 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B15" s="6"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B16" s="6"/>
       <c r="D16" t="s">
         <v>16</v>
@@ -3462,7 +3631,7 @@
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B17" s="6"/>
       <c r="D17" t="s">
         <v>17</v>
@@ -3472,7 +3641,7 @@
       </c>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B18" s="6"/>
       <c r="D18" t="s">
         <v>48</v>
@@ -3482,7 +3651,7 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3508,7 +3677,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3534,18 +3703,18 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B23" s="6"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B24" s="6"/>
       <c r="D24" t="s">
         <v>22</v>
@@ -3555,7 +3724,7 @@
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B25" s="6"/>
       <c r="D25" t="s">
         <v>24</v>
@@ -3565,11 +3734,11 @@
       </c>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B26" s="6"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3607,72 +3776,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Z39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3698,18 +3867,18 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B7" s="6"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B8" s="6"/>
       <c r="D8" t="s">
         <v>2</v>
@@ -3722,11 +3891,11 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B9" s="6"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B10" s="6"/>
       <c r="D10" t="s">
         <v>53</v>
@@ -3742,11 +3911,11 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B11" s="6"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B12" s="6"/>
       <c r="D12" t="s">
         <v>57</v>
@@ -3756,11 +3925,11 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B13" s="6"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B14" s="6"/>
       <c r="D14" t="s">
         <v>59</v>
@@ -3770,11 +3939,11 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B15" s="6"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
       <c r="B16" s="6"/>
       <c r="D16" t="s">
         <v>60</v>
@@ -3784,11 +3953,11 @@
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B17" s="6"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B18" s="6"/>
       <c r="D18" t="s">
         <v>56</v>
@@ -3798,21 +3967,21 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B19" s="6"/>
       <c r="F19" t="s">
         <v>63</v>
       </c>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B20" s="6"/>
       <c r="F20" t="s">
         <v>64</v>
       </c>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3838,7 +4007,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3864,18 +4033,18 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B25" s="6"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B26" s="6"/>
       <c r="D26" t="s">
         <v>2</v>
@@ -3888,11 +4057,11 @@
       </c>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B27" s="6"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B28" s="6"/>
       <c r="D28" t="s">
         <v>53</v>
@@ -3908,11 +4077,11 @@
       </c>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B29" s="6"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B30" s="6"/>
       <c r="D30" t="s">
         <v>57</v>
@@ -3922,11 +4091,11 @@
       </c>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B31" s="6"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B32" s="6"/>
       <c r="D32" t="s">
         <v>59</v>
@@ -3936,11 +4105,11 @@
       </c>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B33" s="6"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B34" s="6"/>
       <c r="D34" t="s">
         <v>60</v>
@@ -3950,11 +4119,11 @@
       </c>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B35" s="6"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B36" s="6"/>
       <c r="D36" t="s">
         <v>56</v>
@@ -3964,21 +4133,21 @@
       </c>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B37" s="6"/>
       <c r="F37" t="s">
         <v>63</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B38" s="6"/>
       <c r="F38" t="s">
         <v>64</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4011,10 +4180,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="F34" r:id="rId3"/>
-    <hyperlink ref="F32" r:id="rId4"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="F32" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -4022,444 +4191,444 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:Z27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.47265625" defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+    <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B4" s="52" t="s">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="54"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B6" s="52" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="56"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="54"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B10" s="52" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="54"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="42"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="42"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="45"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B16" s="46" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="59"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="47"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.85">
+      <c r="B16" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="48"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="51"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="50"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.85">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="53"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B18" s="25"/>
       <c r="C18" s="24" t="s">
         <v>46</v>
@@ -4489,7 +4658,7 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="27"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B19" s="28"/>
       <c r="C19" s="31"/>
       <c r="D19" s="37"/>
@@ -4515,7 +4684,7 @@
       <c r="X19" s="31"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B20" s="25"/>
       <c r="C20" s="24" t="s">
         <v>12</v>
@@ -4545,7 +4714,7 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="27"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B21" s="28"/>
       <c r="C21" s="31"/>
       <c r="D21" s="36"/>
@@ -4571,7 +4740,7 @@
       <c r="X21" s="31"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B22" s="25"/>
       <c r="C22" s="33" t="s">
         <v>38</v>
@@ -4601,7 +4770,7 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="27"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B23" s="28"/>
       <c r="C23" s="34"/>
       <c r="D23" s="30"/>
@@ -4627,7 +4796,7 @@
       <c r="X23" s="31"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B24" s="25"/>
       <c r="C24" s="22" t="s">
         <v>40</v>
@@ -4657,7 +4826,7 @@
       <c r="X24" s="24"/>
       <c r="Y24" s="27"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="30"/>
@@ -4683,7 +4852,7 @@
       <c r="X25" s="31"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26" t="s">
@@ -4711,7 +4880,7 @@
       <c r="X26" s="24"/>
       <c r="Y26" s="27"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.85">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
